--- a/Method Compare Results.xlsx
+++ b/Method Compare Results.xlsx
@@ -4670,19 +4670,19 @@
   <dimension ref="A1:AS146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
